--- a/biology/Botanique/Zannichellia/Zannichellia.xlsx
+++ b/biology/Botanique/Zannichellia/Zannichellia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Zannichellia est un genre de plantes monocotylédones de la famille des Potamogetonaceae (classification phylogénétique), à répartition subcosmopolite, qui comprend  selon certains auteurs six espèces groupées en deux sections, nommément Zannichellia palustris L., Zannichellia pedunculata Reichenb. et Zannichellia major Boenn (sect. Zannichellia), et Zannichellia obtusifolia Talavera, García &amp; Smit, Zannichellia contorta (Desf.) Chamisso &amp; Schlecht. et Zannichellia peltata Bertol. (sect. Monopus Graebner)[2], mais un plus grand nombre d'espèces ont été décrites[3].
-Ce sont des plantes herbacées, annuelles ou pérennes, aquatiques, monoïques, qui vivent dans les eaux douces ou salines[2]. Ces plantes, aux feuilles filiformes et aux fleurs minuscules, sont adaptées à une vie submergée, y compris avec une pollinisation dans l'eau[4]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zannichellia est un genre de plantes monocotylédones de la famille des Potamogetonaceae (classification phylogénétique), à répartition subcosmopolite, qui comprend  selon certains auteurs six espèces groupées en deux sections, nommément Zannichellia palustris L., Zannichellia pedunculata Reichenb. et Zannichellia major Boenn (sect. Zannichellia), et Zannichellia obtusifolia Talavera, García &amp; Smit, Zannichellia contorta (Desf.) Chamisso &amp; Schlecht. et Zannichellia peltata Bertol. (sect. Monopus Graebner), mais un plus grand nombre d'espèces ont été décrites.
+Ce sont des plantes herbacées, annuelles ou pérennes, aquatiques, monoïques, qui vivent dans les eaux douces ou salines. Ces plantes, aux feuilles filiformes et aux fleurs minuscules, sont adaptées à une vie submergée, y compris avec une pollinisation dans l'eau
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Zannichiella, est un hommage de Linné au botaniste et pharmacologue italien Giovanni Girolamo Zannichelli[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Zannichiella, est un hommage de Linné au botaniste et pharmacologue italien Giovanni Girolamo Zannichelli.
 </t>
         </is>
       </c>
@@ -543,12 +557,49 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le genre Zannichellia a été décrit en premier par Linné et publié en 1753 dans son Species plantarum 2: 969[6]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Zannichellia a été décrit en premier par Linné et publié en 1753 dans son Species plantarum 2: 969. 
 Précédemment classé dans la famille des Zannichelliaceae, ce genre est désormais rattaché à la  famille des Potamogetonaceae dans la classification phylogénétique.
-Liste des sous-espèces et espèces
-Selon World Checklist of Selected Plant Families (WCSP)  (18 juillet 2021)[7] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Zannichellia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Zannichellia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces et espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (18 juillet 2021) :
 Zannichellia andina Holm-Niels. &amp; R.R.Haynes (1985)
 Zannichellia aschersoniana Graebn. (1907)
 Zannichellia contorta (Desf.) Cham. (1827)
@@ -558,7 +609,7 @@
 Zannichellia palustris subsp. palustris
 Zannichellia palustris subsp. pedicellata (Rosén &amp; Wahlenb.) Arcang. (1882)
 Zannichellia peltata Bertol. (1854)
-Selon Tropicos                                           (18 juillet 2021)[8] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (18 juillet 2021) (Attention liste brute contenant possiblement des synonymes) :
 Zannichellia aculeata Schur
 Zannichellia andina Holm-Niels. &amp; R.R. Haynes
 Zannichellia aschersoniana Graebn.
@@ -600,8 +651,43 @@
 Zannichellia tenuis Reut.
 Zannichellia tuberosa Lour.
 Zannichellia vaginalis Delile ex Kunth
-Synonymes
-Selon BioLib                    (18 juillet 2021)[9] : 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Zannichellia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Zannichellia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (18 juillet 2021) : 
 Pelta Dulac
 Pseudalthenia (Graebn.) Nakai
 Vleisia Toml. &amp; Posl.</t>
